--- a/1. Login_eSign.xlsx
+++ b/1. Login_eSign.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\Katalon Studio\ATeSign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,17 +14,15 @@
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+  <si>
+    <t>Url</t>
+  </si>
   <si>
     <t>Email</t>
   </si>
@@ -32,73 +30,73 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Perusahaan</t>
+  </si>
+  <si>
+    <t>Peran</t>
+  </si>
+  <si>
+    <t>https://gdkwebserver.ad-ins.com/login</t>
+  </si>
+  <si>
     <t>admin@wom.co.id</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>WOM Finance</t>
+  </si>
+  <si>
+    <t>Admin Client</t>
+  </si>
+  <si>
     <t>andy@ad-ins.com</t>
   </si>
   <si>
+    <t>BM MF</t>
+  </si>
+  <si>
     <t>inveditor@womf</t>
   </si>
   <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>https://gdkwebserver.ad-ins.com/login</t>
-  </si>
-  <si>
     <t>AdIns2022</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Perusahaan</t>
-  </si>
-  <si>
-    <t>Peran</t>
-  </si>
-  <si>
-    <t>Admin Client</t>
-  </si>
-  <si>
-    <t>WOM Finance</t>
-  </si>
-  <si>
     <t>Servername</t>
   </si>
   <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
     <t>jdbc:postgresql://CREATOR_DBSVR</t>
   </si>
   <si>
+    <t>esign_uat</t>
+  </si>
+  <si>
     <t>sa</t>
   </si>
   <si>
     <t>AdIns2021</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>esign_uat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -120,16 +118,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -200,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -235,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,11 +408,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -423,112 +416,124 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>5432</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Admin Client,Admin Legal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>"WOM Finance,NEW FINANCE,ADINS"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1. Login_eSign.xlsx
+++ b/1. Login_eSign.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\Katalon Studio\ATeSign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Setting" sheetId="2" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Url</t>
   </si>
@@ -85,6 +86,18 @@
   </si>
   <si>
     <t>AdIns2021</t>
+  </si>
+  <si>
+    <t>checkStoreDB</t>
+  </si>
+  <si>
+    <t>checkPaging</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -413,9 +426,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/1. Login_eSign.xlsx
+++ b/1. Login_eSign.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Url</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -451,7 +448,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/1. Login_eSign.xlsx
+++ b/1. Login_eSign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Peran</t>
   </si>
   <si>
-    <t>https://gdkwebserver.ad-ins.com/login</t>
-  </si>
-  <si>
     <t>admin@wom.co.id</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>jdbc:postgresql://CREATOR_DBSVR</t>
   </si>
   <si>
-    <t>esign_uat</t>
-  </si>
-  <si>
     <t>sa</t>
   </si>
   <si>
@@ -95,16 +89,30 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>esign</t>
+  </si>
+  <si>
+    <t>http://gdkwebsvr:8080/login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,14 +150,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -437,18 +448,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -465,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -495,64 +506,64 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>2</v>
@@ -560,19 +571,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>5432</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/1. Login_eSign.xlsx
+++ b/1. Login_eSign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Url</t>
   </si>
@@ -91,10 +91,19 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>http://gdkwebsvr:8080/login</t>
+  </si>
+  <si>
     <t>esign</t>
   </si>
   <si>
-    <t>http://gdkwebsvr:8080/login</t>
+    <t>Pakai Local Host</t>
+  </si>
+  <si>
+    <t>url Local Host</t>
+  </si>
+  <si>
+    <t>http://localhost:4500</t>
   </si>
 </sst>
 </file>
@@ -434,40 +443,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -476,14 +502,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
@@ -507,7 +534,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -524,7 +551,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -541,7 +568,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -577,7 +604,7 @@
         <v>5432</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>

--- a/1. Login_eSign.xlsx
+++ b/1. Login_eSign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Url</t>
   </si>
@@ -103,12 +103,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>esign_uat</t>
-  </si>
-  <si>
-    <t>https://gdkwebserver.ad-ins.com/</t>
-  </si>
-  <si>
     <t>VIDA</t>
   </si>
   <si>
@@ -119,6 +113,21 @@
   </si>
   <si>
     <t>WOMF</t>
+  </si>
+  <si>
+    <t>admesign</t>
+  </si>
+  <si>
+    <t>ADINS</t>
+  </si>
+  <si>
+    <t>Admin Esign</t>
+  </si>
+  <si>
+    <t>http://gdkwebsvr:8080/login</t>
+  </si>
+  <si>
+    <t>esign</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -488,10 +497,10 @@
         <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -508,10 +517,10 @@
         <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -531,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -562,8 +571,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -579,8 +588,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
+      <c r="A3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -596,8 +605,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
+      <c r="A4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -607,6 +616,23 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -633,7 +659,7 @@
         <v>5432</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>

--- a/1. Login_eSign.xlsx
+++ b/1. Login_eSign.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Setting" sheetId="2" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Url</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>Admin Esign</t>
+  </si>
+  <si>
+    <t>WOMF</t>
+  </si>
+  <si>
+    <t>VIDA</t>
+  </si>
+  <si>
+    <t>Psre</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>http://gdkwebsvr:7021/adimobile/esign</t>
+  </si>
+  <si>
+    <t>base url API</t>
+  </si>
+  <si>
+    <t>http://localhost:4500/login</t>
   </si>
 </sst>
 </file>
@@ -172,10 +193,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,9 +486,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -479,8 +502,17 @@
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -492,6 +524,15 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +553,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -577,7 +618,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -648,6 +689,9 @@
       <formula1>"WOM Finance,NEW FINANCE,ADINS"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>